--- a/output/mead johnson.xlsx
+++ b/output/mead johnson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,7 @@
           <t>ENFAMIL NEURO PRO Infant Formula 0-12 Months- 1.03kg</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -512,72 +502,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-infant-formula-0-12-months-516gms</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Enfamil NeuroPro Care Gentlease Infant Baby Formula 0-12 Months -567g</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -611,72 +561,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-care-gentlease-baby-infant-formula-0-12-months-567g</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Enfamil NeuroPro Care Infant Baby Formula 0-12 Months- 1.17 kg (Each 587g)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -709,72 +619,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-care-infant-formula-0-12-months-1-17-kg</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>ENFAMIL NEURO PRO Infant Formula 0-12 Months- 587gms</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -807,72 +677,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>mead-johnson-enfamil-neuropro-infant-formula-0-12-months-587g</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>MEAD JOHNSON Enfamil A+ follow-up formula stage 2, 6 +months - 400g</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Easy to digest A+ baby milk substitute with stage 2 follow-Up formula&lt;/li&gt;
@@ -903,72 +733,32 @@
 &lt;p&gt;&lt;span style="color: #1e2e7d;"&gt;&lt;strong&gt;Disclaimer:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;span&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;/span&gt;&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/exchange-policy" target="_blank"&gt;&lt;span style="color: #1e2e7d;"&gt;&lt;strong&gt;Return Policy&lt;/strong&gt; :&lt;/span&gt;&lt;strong&gt;&lt;span&gt; &lt;/span&gt;&lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>mead-johnson-enfamil-a-follow-up-formula-stage-2-0-to-6-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Enfamil Neuro Pro Infant Formula, Refill Pack for Babies, 0-12m, 890g</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1008,72 +798,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-infant-formula-refill-pack-for-babies-0-12m-890g</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>MEAD JOHNSON Enfamil A+ Infant Formula Stage 1 Up to 6 Months 400g</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1100,72 +850,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>mead-johnson-enfamil-a-infant-formula-stage-1-up-to-6-months-400g</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Enfagrow Premium Natural Milk flavored Toddler Baby Nutritional Drink - 1.4kg, 1+years (Tin Pack)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;&lt;span &gt;Nutritious Natural Milk flavored Premium Baby Drink&lt;/span&gt;&lt;/li&gt;
@@ -1200,72 +910,32 @@
 &lt;p&gt;&lt;span style="color: #1e2e7d;" &gt;&lt;strong&gt;Disclaimer:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/exchange-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;" &gt;Return Policy: &lt;/span&gt;&lt;span style="color: #ff2a00;" &gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>enfagrow-premium-toddler-next-step-milk-drink-natural-milk-flavor-1-04-kg-1-3y</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>ENFAMIL NEURO PRO CARE Infant Formula 0-12 Months- 587gms</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1298,72 +968,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-care-infant-formula-0-12-months-587gms</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>ENFAMIL NEURO PRO Gentlease Baby Infant Formula 0-12 Months 567g</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1397,72 +1027,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>mead-johnson-enfamil-neuropro-gentlease-baby-infant-formula-0-12-months-567g</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Mead Johnson Enfamil A+ Infant Formula Stage 1 Up to 6 Months -400g</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1489,72 +1079,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>mead-johnson-enfamil-a-infant-formula-stage-1-up-to-6-months-400g-1</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Enfamil A+ Follow - Up Formula Stage 3 - 400g (12-24m)</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Enfamil A+ Stage 3 is a follow up formula for older infants scientifically designed to provide optimal nutrition from age 12 to 24 months.&lt;/li&gt;
@@ -1584,72 +1134,32 @@
 &lt;p&gt;&lt;span style="color: #1e2e7d;"&gt;&lt;strong&gt;Disclaimer:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/exchange-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Return Policy : &lt;/span&gt;&lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>enfamil-a-follow-up-formula-stage-3-400g-12-24m</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>MEAD JOHNSON Enfagrow A+ nutritional milk powder, stage 4 - vanilla, 3 - 6 years - 400g</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Easy to digest A+ Vanilla flavored nutritional milk powder&lt;/li&gt;
@@ -1681,72 +1191,32 @@
 &lt;p&gt;&lt;span style="color: #1e2e7d;"&gt;&lt;strong&gt;Disclaimer:&lt;/strong&gt;&lt;/span&gt;&lt;br&gt;&lt;br&gt;The product information displayed on this website is for your reference only. Hence we request you to always read labels, warnings &amp;amp; directions before using or introducing the food product to your baby. For additional information please refer the product manufacturer’s website.&lt;br&gt;&lt;br&gt;&lt;a href="https://www.uyyaala.com/pages/exchange-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;strong&gt;&lt;span style="color: #1e2e7d;"&gt;Return Policy : &lt;/span&gt;&lt;span style="color: #ff2a00;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>mead-johnson-enfamil-a-nutritional-milk-powder-stage-2-vanilla-3-6-years-400g</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Enfamil Neuro Pro Care Gentlease Baby Infant Formula 0-12 Months 1.13kg (each 567g)</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1781,72 +1251,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-care-gentlease-baby-infant-formula-0-12-months-1-13kg-each-567g</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>ENFAMIL NEURO PRO Infant Formula 0-12 Months- 802gms</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1879,72 +1309,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-infant-formula-0-12-months-802gms</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Enfamil Neuro Pro Gentlease Infant Baby Milk Formula - 998gms, 0-12months (Refill Pack)</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -1986,72 +1376,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-gentlease-infant-formula-refill-pack-for-babies-0-12m-998g-1</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Enfamil A+ DHA-Plus Infant Formula 0-12 Months-765gms</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2088,72 +1438,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>enfamil-a-dha-plus-infant-formula-0-12-months-765gms</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Mead Johnson Enfagrow A+ Nutritional Milk Powder Chocolate Flavour Stage - 4, for 2Yrs+ 400g</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 &lt;li&gt;Easy to digest A+ Chocolate flavored baby milk powder&lt;/li&gt;
@@ -2178,72 +1488,32 @@
 &lt;p&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;strong&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy :&lt;/span&gt; &lt;span style="color: #ef0c0c;"&gt;Click Here&lt;/span&gt;&lt;/strong&gt;&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>mead-johnson-enfagrow-a-nutritional-milk-powder-chocolate-flavour-for-2yrs-400g</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>ENFAMIL Premium Gentlease Toddler Nutritional Drink 1 Year +,825g</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2282,72 +1552,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>enfamil-premium-gentlease-toddler-nutritional-drink-1-year-825g</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Enfamil Neuro Pro Gentlease Infant Formula, Refill Pack for Babies, 0-12m, 862g</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2401,72 +1631,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-gentlease-infant-formula-refill-pack-for-babies-0-12m-862g</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Enfamil Infant Formula Milk-Based Powder with Iron for Immune Support 0-12 Months - 834g</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2504,72 +1694,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>enfamil-infant-formula-milk-based-powder-with-iron-for-immune-support-0-12-months-834g</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Enfamil Neuro Pro Gentlease Baby Infant Formula 0-12 Months 1.13kg (each 567g)</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2604,72 +1754,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-gentlease-baby-infant-formula-0-12-months-1-13kg-each-567g</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Enfamil A+ Gentlease Infant Formula, Refill Pack for Babies, 0-12m, 2 x 471g (942g)</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2719,72 +1829,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>enfamil-a-gentlease-infant-formula-refill-pack-for-babies-0-12m-2-x-471g-942g</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Enfamil A.R. Added Rice Infant Formula, Clinically Proven to Reduce Reflux &amp; Spit-Up in 1 Week, with Iron, DHA for Brain Development, Refill Pack for Babies, 0-12m, 862g</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2835,72 +1905,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="https://www.uyyaala.com/pages/return-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;" &gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;" &gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>enfamil-a-r-added-rice-infant-formula-clinically-proven-to-reduce-reflux-spit-up-in-1-week-with-iron-dha-for-brain-development-refill-pack-for-babies-0-12m-862g</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Enfamil Neuro Pro Gentlease Infant Formula, Refill Pack for Babies, 0-12m, 998g</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -2954,72 +1984,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-gentlease-infant-formula-refill-pack-for-babies-0-12m-998g</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Enfamil NeuroPRO Infant Formula 0-12 Months -1.17kg (Each 587g)</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -3052,72 +2042,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank" rel="noopener noreferrer"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-infant-formula-0-12-months-1-17kg</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Enfamil Gentlease Baby Infant Formula 0-12 Months 352g</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;ul&gt;
@@ -3151,72 +2101,32 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="http://uyyala.in/pages/privacy-policy" target="_blank"&gt;&lt;span style="color: #1e2d7d;"&gt;Return Policy:&lt;/span&gt; &lt;span style="color: #f40e0e;"&gt;Click Here&lt;/span&gt;&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>enfamil-gentlease-baby-infant-formula-0-12-months-352g</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Enfamil Neuro Pro Sensitive Infant Formula - 833g</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>&lt;div&gt;
 &lt;div&gt;
@@ -3258,47 +2168,17 @@
 --&gt;&lt;/style&gt;</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Mead Johnson</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Infant Formula</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mead Johnson</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Infant Formula</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>enfamil-neuro-pro-sensitive-infant-formula-833g</t>
         </is>
